--- a/assets/Excells/CotisationSpeciale2.xlsx
+++ b/assets/Excells/CotisationSpeciale2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C66F0-E408-864D-964C-340781404D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D1840-EA4C-F641-87D7-4E666D44B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="4880" windowWidth="33040" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="71">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,11 +1664,15 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="P14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="R14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1722,9 @@
       <c r="Q15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="S15" s="40"/>
     </row>
     <row r="16" spans="1:19" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
